--- a/other/input/all_loggers_and_wells_locations_notes.xlsx
+++ b/other/input/all_loggers_and_wells_locations_notes.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\beaver_creek_hydrology\other\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/beaver_creek_hydrology_github/other/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AC16-00DE-459E-A339-3964161EA921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="11_7A23C358330BB07F8EF44DACCBB0AF962C73F9F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E14140-6467-4925-ABA0-2BC8623448D6}"/>
   <bookViews>
-    <workbookView xWindow="13830" yWindow="3960" windowWidth="14400" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +38,7 @@
     <author>tc={3ACECEA6-09E4-475D-89C7-E4629DC63F08}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3ACECEA6-09E4-475D-89C7-E4629DC63F08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -38,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
   <si>
     <t>site_type</t>
   </si>
@@ -79,379 +92,376 @@
     <t>parcel_id</t>
   </si>
   <si>
+    <t>completed_permits</t>
+  </si>
+  <si>
+    <t>Line_locates</t>
+  </si>
+  <si>
+    <t>last_download</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>permitting_notes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>well_site_2</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>road access looks good</t>
+  </si>
+  <si>
+    <t>confirmed good access</t>
+  </si>
+  <si>
+    <t>04101020</t>
+  </si>
+  <si>
+    <t>Submitted 6/28</t>
+  </si>
+  <si>
+    <t>near powerlines. barometric pressure logger #82786</t>
+  </si>
+  <si>
+    <t>sent in application for "casual use" permit 6/21/22. No issues anticipated, final confirmation available afternoon of 7/5/22</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Alaska Mental Health Trust</t>
+  </si>
+  <si>
+    <t>confirmed good road access. will contact AMHT</t>
+  </si>
+  <si>
+    <t>907-269-7960</t>
+  </si>
+  <si>
+    <t>https://alaskamentalhealthtrust.org/connect/contact-info/</t>
+  </si>
+  <si>
+    <t>04103005</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Submitted 6/22</t>
+  </si>
+  <si>
+    <t>Landowner originally proposed a no-cost agreement; then supervisor came back to require a $300 annual fee. Paid fee.</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>well_site_4</t>
+  </si>
+  <si>
+    <t>USFWS</t>
+  </si>
+  <si>
+    <t>"Deep" well</t>
+  </si>
+  <si>
+    <t>well_site_3</t>
+  </si>
+  <si>
+    <t>02514016</t>
+  </si>
+  <si>
+    <t>"Shallow" well</t>
+  </si>
+  <si>
+    <t>emailed Stephen Miller 5/20/2022. Permit finalized 6/3/2022</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>well_site_1</t>
+  </si>
+  <si>
+    <t>City of Kenai</t>
+  </si>
+  <si>
+    <t>confirmed good road access</t>
+  </si>
+  <si>
+    <t>04103060</t>
+  </si>
+  <si>
+    <t>near city of kenai water pump station/tanks</t>
+  </si>
+  <si>
+    <t>emailed DNR public info office at dnr.pic@alaska.gov. Emailed Scott Curtin w/ CoK 6/20/2022.</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>BLM &amp; Alaska Mental Health Trust</t>
+  </si>
+  <si>
+    <t>01722002</t>
+  </si>
+  <si>
+    <t>No - I think we will just access this for shading if we can get a well in at 1A</t>
+  </si>
+  <si>
+    <t>sent in application for "casual use" BLM permit 6/21/22. Option to install on either AMHT or BLM land.</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Kenai Natives Association</t>
+  </si>
+  <si>
+    <t>road access might be tricky</t>
+  </si>
+  <si>
+    <t>road access look OK</t>
+  </si>
+  <si>
+    <t>01721001</t>
+  </si>
+  <si>
+    <t>called Kenai Native Assc office on 6/21/22, permission sounds like simple process, should be complete within 1 week. sent application to KRC</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>road access looks iffy</t>
+  </si>
+  <si>
+    <t>road access unclear. access looks difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I THINK WE CAN DROP THIS AS A WELL SITE; MIGHT BE GOOD TO ACCESS FOR SHADING IF THAT IS ALLOWED&gt;</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>good road access</t>
+  </si>
+  <si>
+    <t>01709001</t>
+  </si>
+  <si>
+    <t>Plan to not put well here</t>
+  </si>
+  <si>
+    <t>called Kenai Native Assc office on 6/21/22, permission sounds like simple process, should be complete within 1 week. Sent application to KRC</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>well_site_5</t>
+  </si>
+  <si>
+    <t>good road access, don’t need if the Hillcorp wells work out</t>
+  </si>
+  <si>
+    <t>02511002</t>
+  </si>
+  <si>
+    <t>upper marathon road</t>
+  </si>
+  <si>
+    <t>hilcorp higher-ups non responsive to request as of 6/21/2022</t>
+  </si>
+  <si>
+    <t>temp_logger</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_1</t>
+  </si>
+  <si>
+    <t>below outlet of beaver lake</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_2</t>
+  </si>
+  <si>
+    <t>appx 0.5 mi walk upstream from utility corridor intersection</t>
+  </si>
+  <si>
+    <t>near Juliessen st</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_3</t>
+  </si>
+  <si>
+    <t>long-term KWF site -logger 1</t>
+  </si>
+  <si>
+    <t>long-term KWF site - logger 2</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_4</t>
+  </si>
+  <si>
+    <t>flow may not be present; or ephemeral. probably not worth an install, will apply for permit anyways</t>
+  </si>
+  <si>
+    <t>tributary of beaver creek</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow likely not present. </t>
+  </si>
+  <si>
+    <t>tributary of beaver creek at powerline trail crossing</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_6</t>
+  </si>
+  <si>
+    <t>0.8 miles to nearest road. access feasible but challenging.</t>
+  </si>
+  <si>
+    <t>upstream from powerline crossing</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_7</t>
+  </si>
+  <si>
+    <t>adjacent to upper marathon road</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_8</t>
+  </si>
+  <si>
+    <t>good trail access</t>
+  </si>
+  <si>
+    <t>west fork beaver creek, upstream of marathon road</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_9</t>
+  </si>
+  <si>
+    <t>appx 1.0 miles to nearests road. access feasible but challenging.</t>
+  </si>
+  <si>
+    <t>upstream from powerline crossing, small tributary coming in from east</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_10</t>
+  </si>
+  <si>
+    <t>west fork beaver creek, upstream of marathon road, small tributary coming in from west</t>
+  </si>
+  <si>
+    <t>not applying for permit here, flow almost certainly not present (note 9/16/2022: was an incorrect assumption)</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_11</t>
+  </si>
+  <si>
+    <t>confirmed easy walking access</t>
+  </si>
+  <si>
+    <t>at powerline crossing of beaver creek</t>
+  </si>
+  <si>
+    <t>location is ~50' downstream from original shapefile to relocate off private parcel</t>
+  </si>
+  <si>
+    <t>04108013</t>
+  </si>
+  <si>
+    <t>park near intersection of raven st and spur hwy maybe</t>
+  </si>
+  <si>
+    <t>04103004</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_14</t>
+  </si>
+  <si>
+    <t>appx 1.25 miles to nearest road, difficult accecss</t>
+  </si>
+  <si>
+    <t>01313003</t>
+  </si>
+  <si>
+    <t>west fork of upper beaver creek, just downstrem of road</t>
+  </si>
+  <si>
+    <t>beaver_creek_usgs_temp_15</t>
+  </si>
+  <si>
+    <t>location is modified from shapefile, moved to river left bank on to city of kenai parcel. river right parcel is private</t>
+  </si>
+  <si>
+    <t>04926126</t>
+  </si>
+  <si>
+    <t>KWF_beaver_creek_temp_logger</t>
+  </si>
+  <si>
+    <t>Snowshoe Gun Club</t>
+  </si>
+  <si>
+    <t>near snowshoe gun club</t>
+  </si>
+  <si>
+    <t>call to confirm access permission; had key/permission in 2015-2016, established site</t>
+  </si>
+  <si>
+    <t>02514101</t>
+  </si>
+  <si>
+    <t>Will be able to request permission at next gun club board meeting on July 14th</t>
+  </si>
+  <si>
+    <t>new logger arguably not necessary here, KWF already has a logger installed ~50 feet away.</t>
+  </si>
+  <si>
+    <t>flow may not be present</t>
+  </si>
+  <si>
+    <t>flow likely not present</t>
+  </si>
+  <si>
+    <t>flow_station</t>
+  </si>
+  <si>
+    <t>USGS 15266500</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>USGS discharge station 15266500 (https://waterdata.usgs.gov/monitoring-location/15266500/#parameterCode=00065&amp;period=P365D)</t>
+  </si>
+  <si>
     <t>logger_serial</t>
-  </si>
-  <si>
-    <t>completed_permits</t>
-  </si>
-  <si>
-    <t>Line_locates</t>
-  </si>
-  <si>
-    <t>last_download</t>
-  </si>
-  <si>
-    <t>location_notes</t>
-  </si>
-  <si>
-    <t>permitting_notes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>well_site_2</t>
-  </si>
-  <si>
-    <t>BLM</t>
-  </si>
-  <si>
-    <t>road access looks good</t>
-  </si>
-  <si>
-    <t>confirmed good access</t>
-  </si>
-  <si>
-    <t>04101020</t>
-  </si>
-  <si>
-    <t>Submitted 6/28</t>
-  </si>
-  <si>
-    <t>near powerlines. barometric pressure logger #82786</t>
-  </si>
-  <si>
-    <t>sent in application for "casual use" permit 6/21/22. No issues anticipated, final confirmation available afternoon of 7/5/22</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>Alaska Mental Health Trust</t>
-  </si>
-  <si>
-    <t>confirmed good road access. will contact AMHT</t>
-  </si>
-  <si>
-    <t>907-269-7960</t>
-  </si>
-  <si>
-    <t>https://alaskamentalhealthtrust.org/connect/contact-info/</t>
-  </si>
-  <si>
-    <t>04103005</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Submitted 6/22</t>
-  </si>
-  <si>
-    <t>Landowner originally proposed a no-cost agreement; then supervisor came back to require a $300 annual fee. Paid fee.</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>well_site_4</t>
-  </si>
-  <si>
-    <t>USFWS</t>
-  </si>
-  <si>
-    <t>"Deep" well</t>
-  </si>
-  <si>
-    <t>well_site_3</t>
-  </si>
-  <si>
-    <t>02514016</t>
-  </si>
-  <si>
-    <t>"Shallow" well</t>
-  </si>
-  <si>
-    <t>emailed Stephen Miller 5/20/2022. Permit finalized 6/3/2022</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>well_site_1</t>
-  </si>
-  <si>
-    <t>City of Kenai</t>
-  </si>
-  <si>
-    <t>confirmed good road access</t>
-  </si>
-  <si>
-    <t>04103060</t>
-  </si>
-  <si>
-    <t>near city of kenai water pump station/tanks</t>
-  </si>
-  <si>
-    <t>emailed DNR public info office at dnr.pic@alaska.gov. Emailed Scott Curtin w/ CoK 6/20/2022.</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>BLM &amp; Alaska Mental Health Trust</t>
-  </si>
-  <si>
-    <t>01722002</t>
-  </si>
-  <si>
-    <t>No - I think we will just access this for shading if we can get a well in at 1A</t>
-  </si>
-  <si>
-    <t>sent in application for "casual use" BLM permit 6/21/22. Option to install on either AMHT or BLM land.</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>Kenai Natives Association</t>
-  </si>
-  <si>
-    <t>road access might be tricky</t>
-  </si>
-  <si>
-    <t>road access look OK</t>
-  </si>
-  <si>
-    <t>01721001</t>
-  </si>
-  <si>
-    <t>called Kenai Native Assc office on 6/21/22, permission sounds like simple process, should be complete within 1 week. sent application to KRC</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>road access looks iffy</t>
-  </si>
-  <si>
-    <t>road access unclear. access looks difficult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>I THINK WE CAN DROP THIS AS A WELL SITE; MIGHT BE GOOD TO ACCESS FOR SHADING IF THAT IS ALLOWED&gt;</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>good road access</t>
-  </si>
-  <si>
-    <t>01709001</t>
-  </si>
-  <si>
-    <t>Plan to not put well here</t>
-  </si>
-  <si>
-    <t>called Kenai Native Assc office on 6/21/22, permission sounds like simple process, should be complete within 1 week. Sent application to KRC</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>well_site_5</t>
-  </si>
-  <si>
-    <t>good road access, don’t need if the Hillcorp wells work out</t>
-  </si>
-  <si>
-    <t>02511002</t>
-  </si>
-  <si>
-    <t>upper marathon road</t>
-  </si>
-  <si>
-    <t>hilcorp higher-ups non responsive to request as of 6/21/2022</t>
-  </si>
-  <si>
-    <t>temp_logger</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_1</t>
-  </si>
-  <si>
-    <t>below outlet of beaver lake</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_2</t>
-  </si>
-  <si>
-    <t>adjacent to upper marathon road</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_3</t>
-  </si>
-  <si>
-    <t>good trail access</t>
-  </si>
-  <si>
-    <t>west fork beaver creek, upstream of marathon road</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_4</t>
-  </si>
-  <si>
-    <t>west fork beaver creek, upstream of marathon road, small tributary coming in from west</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_5</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_6</t>
-  </si>
-  <si>
-    <t>appx 1.25 miles to nearest road, difficult accecss</t>
-  </si>
-  <si>
-    <t>01313003</t>
-  </si>
-  <si>
-    <t>west fork of upper beaver creek, just downstrem of road</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_7</t>
-  </si>
-  <si>
-    <t>0.8 miles to nearest road. access feasible but challenging.</t>
-  </si>
-  <si>
-    <t>upstream from powerline crossing</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_8</t>
-  </si>
-  <si>
-    <t>appx 1.0 miles to nearests road. access feasible but challenging.</t>
-  </si>
-  <si>
-    <t>upstream from powerline crossing, small tributary coming in from east</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_9</t>
-  </si>
-  <si>
-    <t>confirmed easy walking access</t>
-  </si>
-  <si>
-    <t>at powerline crossing of beaver creek</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flow likely not present. </t>
-  </si>
-  <si>
-    <t>tributary of beaver creek at powerline trail crossing</t>
-  </si>
-  <si>
-    <t>not applying for permit here, flow almost certainly not present (note 9/16/2022: was an incorrect assumption)</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_11</t>
-  </si>
-  <si>
-    <t>Snowshoe Gun Club</t>
-  </si>
-  <si>
-    <t>near snowshoe gun club</t>
-  </si>
-  <si>
-    <t>location is ~50' downstream from original shapefile to relocate off private parcel</t>
-  </si>
-  <si>
-    <t>04108013</t>
-  </si>
-  <si>
-    <t>park near intersection of raven st and spur hwy maybe</t>
-  </si>
-  <si>
-    <t>04103004</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_14</t>
-  </si>
-  <si>
-    <t>flow may not be present; or ephemeral. probably not worth an install, will apply for permit anyways</t>
-  </si>
-  <si>
-    <t>tributary of beaver creek</t>
-  </si>
-  <si>
-    <t>beaver_creek_usgs_temp_15</t>
-  </si>
-  <si>
-    <t>appx 0.5 mi walk upstream from utility corridor intersection</t>
-  </si>
-  <si>
-    <t>near Juliessen st</t>
-  </si>
-  <si>
-    <t>location is modified from shapefile, moved to river left bank on to city of kenai parcel. river right parcel is private</t>
-  </si>
-  <si>
-    <t>04926126</t>
-  </si>
-  <si>
-    <t>long-term KWF site</t>
-  </si>
-  <si>
-    <t>call to confirm access permission; had key/permission in 2015-2016, established site</t>
-  </si>
-  <si>
-    <t>02514101</t>
-  </si>
-  <si>
-    <t>Will be able to request permission at next gun club board meeting on July 14th</t>
-  </si>
-  <si>
-    <t>new logger arguably not necessary here, KWF already has a logger installed ~50 feet away.</t>
-  </si>
-  <si>
-    <t>flow may not be present</t>
-  </si>
-  <si>
-    <t>flow likely not present</t>
-  </si>
-  <si>
-    <t>flow_station</t>
-  </si>
-  <si>
-    <t>USGS 15266500</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>USGS discharge station 15266500 (https://waterdata.usgs.gov/monitoring-location/15266500/#parameterCode=00065&amp;period=P365D)</t>
-  </si>
-  <si>
-    <t>KWF_beaver_creek_temp_logger</t>
-  </si>
-  <si>
-    <t>field_install_date</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -461,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +508,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,7 +541,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -868,11 +870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27:L27"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,14 +887,16 @@
     <col min="6" max="6" width="43.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="18" width="19" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.140625" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="30.140625" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -938,45 +942,42 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="7">
         <v>60.597079999999998</v>
@@ -991,45 +992,42 @@
         <v>-151.20415</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="4">
         <v>675669</v>
       </c>
       <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="9">
-        <v>44746</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="7">
         <v>60.570189999999997</v>
@@ -1038,31 +1036,31 @@
         <v>-151.164063</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
       <c r="H4" s="3"/>
       <c r="K4" s="7">
@@ -1075,31 +1073,28 @@
       <c r="N4" s="4">
         <v>472877</v>
       </c>
-      <c r="Q4" s="9">
-        <v>44746</v>
-      </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
       <c r="I5" s="7">
         <v>60.639479999999999</v>
@@ -1114,45 +1109,42 @@
         <v>-151.080862</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="4">
         <v>447555</v>
       </c>
       <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
         <v>35</v>
       </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>44746</v>
-      </c>
       <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
         <v>44</v>
-      </c>
-      <c r="T5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="7">
         <v>60.564579999999999</v>
@@ -1167,40 +1159,37 @@
         <v>-151.119204</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>44746</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
         <v>51</v>
-      </c>
-      <c r="T6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
         <v>60.612560000000002</v>
@@ -1209,37 +1198,34 @@
         <v>-151.18492000000001</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>44746</v>
-      </c>
-      <c r="T7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
       </c>
       <c r="I8" s="7">
         <v>60.610320000000002</v>
@@ -1248,66 +1234,60 @@
         <v>-151.28101000000001</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="T8" t="s">
         <v>62</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="Q8" s="9">
-        <v>44746</v>
-      </c>
-      <c r="T8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="O9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>44746</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
         <v>60.620699999999999</v>
@@ -1316,37 +1296,34 @@
         <v>-151.15378999999999</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" t="s">
         <v>73</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>44746</v>
-      </c>
-      <c r="T10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
         <v>60.646419999999999</v>
@@ -1361,527 +1338,471 @@
         <v>-151.01695000000001</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="4">
         <v>448886</v>
       </c>
       <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
         <v>35</v>
       </c>
-      <c r="P11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>44746</v>
-      </c>
       <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s">
         <v>79</v>
       </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
       <c r="I13" s="8">
-        <v>60.620445760000003</v>
+        <v>60.645153000000001</v>
       </c>
       <c r="J13" s="8">
-        <v>-151.07652963500001</v>
+        <v>-151.01730889999999</v>
       </c>
       <c r="K13" s="8">
-        <v>60.555880000000002</v>
+        <v>60.649506000000002</v>
       </c>
       <c r="L13" s="8">
-        <v>-151.12873999999999</v>
+        <v>-151.00481600000001</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="4">
-        <v>10816960</v>
-      </c>
-      <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>44748</v>
+        <v>21444869</v>
       </c>
       <c r="R13" s="9">
-        <v>44846</v>
+        <v>44838</v>
       </c>
       <c r="S13" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>135</v>
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="7">
-        <v>60.560490000000001</v>
-      </c>
-      <c r="L14" s="7">
-        <v>-151.12554</v>
-      </c>
-      <c r="N14">
-        <v>20012591</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>137</v>
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="8">
+        <v>60.620445760000003</v>
+      </c>
+      <c r="J14" s="8">
+        <v>-151.07652963500001</v>
+      </c>
+      <c r="K14" s="8">
+        <v>60.555880000000002</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-151.12873999999999</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10816960</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
       </c>
       <c r="R14" s="9">
-        <v>44818</v>
+        <v>44846</v>
       </c>
       <c r="S14" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="8">
-        <v>60.615250000000003</v>
-      </c>
-      <c r="J15" s="8">
-        <v>-151.09295979999999</v>
-      </c>
-      <c r="K15" s="8">
-        <v>60.560059000000003</v>
-      </c>
-      <c r="L15" s="8">
-        <v>-151.12647999999999</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="4">
-        <v>20625008</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>44748</v>
+        <v>47</v>
+      </c>
+      <c r="K15" s="7">
+        <v>60.560490000000001</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-151.12554</v>
+      </c>
+      <c r="N15">
+        <v>20012591</v>
       </c>
       <c r="R15" s="9">
         <v>44818</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7">
+        <v>60.560490000000001</v>
+      </c>
+      <c r="L16" s="7">
+        <v>-151.12554</v>
+      </c>
+      <c r="N16">
+        <v>21488142</v>
+      </c>
+      <c r="R16" s="9">
+        <v>44818</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="8">
+        <v>60.615250000000003</v>
+      </c>
+      <c r="J17" s="8">
+        <v>-151.09295979999999</v>
+      </c>
+      <c r="K17" s="8">
+        <v>60.560059000000003</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-151.12647999999999</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="4">
+        <v>20625008</v>
+      </c>
+      <c r="R17" s="9">
+        <v>44818</v>
+      </c>
+      <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="8">
+        <v>60.609593500000003</v>
+      </c>
+      <c r="J18" s="8">
+        <v>-151.18171179999999</v>
+      </c>
+      <c r="K18" s="8">
+        <v>60.616689999999998</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-151.09259</v>
+      </c>
+      <c r="N18">
+        <v>21235340</v>
+      </c>
+      <c r="R18" s="9">
+        <v>44819</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="8">
+        <v>60.651980999999999</v>
+      </c>
+      <c r="J19" s="8">
+        <v>-151.0912677</v>
+      </c>
+      <c r="K19" s="8">
+        <v>60.620170000000002</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-151.07903999999999</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="4">
+        <v>21235341</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="9">
+        <v>44819</v>
+      </c>
+      <c r="S19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="8">
+        <v>60.640580999999997</v>
+      </c>
+      <c r="J20" s="8">
+        <v>-151.08386379999999</v>
+      </c>
+      <c r="K20" s="7">
+        <v>60.640560000000001</v>
+      </c>
+      <c r="L20" s="7">
+        <v>-151.06100000000001</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="4">
+        <v>21235343</v>
+      </c>
+      <c r="R20" s="9">
+        <v>44838</v>
+      </c>
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="8">
+        <v>60.615214999999999</v>
+      </c>
+      <c r="J21" s="8">
+        <v>-151.085748</v>
+      </c>
+      <c r="K21" s="8">
+        <v>60.651069999999997</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-151.09075999999999</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="4">
+        <v>21444843</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="9">
+        <v>44854</v>
+      </c>
+      <c r="S21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="8">
+        <v>60.650231900000001</v>
+      </c>
+      <c r="J22" s="8">
+        <v>-150.993538</v>
+      </c>
+      <c r="K22" s="8">
+        <v>60.620010000000001</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-151.07884000000001</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="4">
+        <v>21444844</v>
+      </c>
+      <c r="R22" s="9">
+        <v>44819</v>
+      </c>
+      <c r="S22" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="8">
-        <v>60.609593500000003</v>
-      </c>
-      <c r="J16" s="8">
-        <v>-151.18171179999999</v>
-      </c>
-      <c r="K16" s="8">
-        <v>60.616689999999998</v>
-      </c>
-      <c r="L16" s="8">
-        <v>-151.09259</v>
-      </c>
-      <c r="N16">
-        <v>21235340</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>45112</v>
-      </c>
-      <c r="R16" s="9">
-        <v>44819</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7">
+        <v>60.643450000000001</v>
+      </c>
+      <c r="L23" s="7">
+        <v>-151.08847</v>
+      </c>
+      <c r="N23">
+        <v>21444870</v>
+      </c>
+      <c r="R23" s="9">
+        <v>44854</v>
+      </c>
+      <c r="S23" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="8">
-        <v>60.651980999999999</v>
-      </c>
-      <c r="J17" s="8">
-        <v>-151.0912677</v>
-      </c>
-      <c r="K17" s="8">
-        <v>60.620170000000002</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-151.07903999999999</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="4">
-        <v>21235341</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>45112</v>
-      </c>
-      <c r="R17" s="9">
-        <v>44819</v>
-      </c>
-      <c r="S17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="8">
-        <v>60.640580999999997</v>
-      </c>
-      <c r="J18" s="8">
-        <v>-151.08386379999999</v>
-      </c>
-      <c r="K18" s="7">
-        <v>60.640560000000001</v>
-      </c>
-      <c r="L18" s="7">
-        <v>-151.06100000000001</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="4">
-        <v>21235343</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>44748</v>
-      </c>
-      <c r="R18" s="9">
-        <v>44838</v>
-      </c>
-      <c r="S18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="8">
-        <v>60.615214999999999</v>
-      </c>
-      <c r="J19" s="8">
-        <v>-151.085748</v>
-      </c>
-      <c r="K19" s="8">
-        <v>60.651069999999997</v>
-      </c>
-      <c r="L19" s="8">
-        <v>-151.09075999999999</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="4">
-        <v>21444843</v>
-      </c>
-      <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>44748</v>
-      </c>
-      <c r="R19" s="9">
-        <v>44854</v>
-      </c>
-      <c r="S19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="8">
-        <v>60.650231900000001</v>
-      </c>
-      <c r="J20" s="8">
-        <v>-150.993538</v>
-      </c>
-      <c r="K20" s="8">
-        <v>60.620010000000001</v>
-      </c>
-      <c r="L20" s="8">
-        <v>-151.07884000000001</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="4">
-        <v>21444844</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>45112</v>
-      </c>
-      <c r="R20" s="9">
-        <v>44819</v>
-      </c>
-      <c r="S20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="8">
-        <v>60.645153000000001</v>
-      </c>
-      <c r="J21" s="8">
-        <v>-151.01730889999999</v>
-      </c>
-      <c r="K21" s="8">
-        <v>60.649506000000002</v>
-      </c>
-      <c r="L21" s="8">
-        <v>-151.00481600000001</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="4">
-        <v>21444869</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>44746</v>
-      </c>
-      <c r="R21" s="9">
-        <v>44838</v>
-      </c>
-      <c r="S21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="7">
-        <v>60.643450000000001</v>
-      </c>
-      <c r="L22" s="7">
-        <v>-151.08847</v>
-      </c>
-      <c r="N22">
-        <v>21444870</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>44748</v>
-      </c>
-      <c r="R22" s="9">
-        <v>44854</v>
-      </c>
-      <c r="S22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="8">
-        <v>60.640726999999998</v>
-      </c>
-      <c r="J23" s="8">
-        <v>-151.06054649999999</v>
-      </c>
-      <c r="K23" s="8">
-        <v>60.615143000000003</v>
-      </c>
-      <c r="L23" s="8">
-        <v>-151.086082</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="4">
-        <v>21444872</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>45112</v>
-      </c>
-      <c r="R23" s="9">
-        <v>44819</v>
-      </c>
-      <c r="S23" t="s">
-        <v>104</v>
       </c>
       <c r="T23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I24" s="8">
-        <v>60.653700999999998</v>
+        <v>60.640726999999998</v>
       </c>
       <c r="J24" s="8">
-        <v>-151.12235860000001</v>
+        <v>-151.06054649999999</v>
       </c>
       <c r="K24" s="8">
-        <v>60.640419999999999</v>
+        <v>60.615143000000003</v>
       </c>
       <c r="L24" s="8">
-        <v>-151.08385999999999</v>
+        <v>-151.086082</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="N24" s="4">
-        <v>21444873</v>
-      </c>
-      <c r="O24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>44746</v>
+        <v>21444872</v>
       </c>
       <c r="R24" s="9">
-        <v>44847</v>
+        <v>44819</v>
       </c>
       <c r="S24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="5">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -1897,15 +1818,15 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>114</v>
@@ -1923,76 +1844,85 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="8">
+        <v>60.653700999999998</v>
+      </c>
+      <c r="J27" s="8">
+        <v>-151.12235860000001</v>
+      </c>
+      <c r="K27" s="8">
+        <v>60.640419999999999</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-151.08385999999999</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="4">
+        <v>21444873</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="9">
+        <v>44847</v>
+      </c>
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="7">
         <v>60.65081</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L28" s="7">
         <v>-151.09117000000001</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>21444874</v>
       </c>
-      <c r="Q27" s="9">
-        <v>44748</v>
-      </c>
-      <c r="R27" s="9">
+      <c r="R28" s="9">
         <v>44854</v>
       </c>
-      <c r="S27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="7">
-        <v>60.570312000000001</v>
-      </c>
-      <c r="L28" s="7">
-        <v>-151.103216</v>
-      </c>
-      <c r="N28">
-        <v>21488145</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>44799</v>
-      </c>
-      <c r="R28" s="9">
-        <v>44852</v>
-      </c>
       <c r="S28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="I29" s="8">
         <v>60.621114800000001</v>
@@ -2003,22 +1933,22 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="5">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="8">
         <v>60.549323000000001</v>
@@ -2029,68 +1959,64 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
       <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7">
+        <v>60.570312000000001</v>
+      </c>
+      <c r="L31" s="7">
+        <v>-151.103216</v>
+      </c>
+      <c r="N31">
+        <v>21488145</v>
+      </c>
+      <c r="R31" s="9">
+        <v>44852</v>
+      </c>
+      <c r="S31" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="8">
-        <v>60.571249999999999</v>
-      </c>
-      <c r="J31" s="8">
-        <v>-151.09889000000001</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N31" s="4"/>
-      <c r="O31" t="s">
-        <v>67</v>
-      </c>
-      <c r="T31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="I32" s="8">
-        <v>60.560287000000002</v>
+        <v>60.571249999999999</v>
       </c>
       <c r="J32" s="8">
-        <v>-151.12574900000001</v>
+        <v>-151.09889000000001</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T32" t="s">
         <v>128</v>
@@ -2098,93 +2024,123 @@
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="5">
+        <v>80</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="8">
+        <v>60.560287000000002</v>
+      </c>
+      <c r="J33" s="8">
+        <v>-151.12574900000001</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="8">
         <v>60.571509800000001</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <v>-151.14455100000001</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="T33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L34" s="8"/>
+      <c r="T34" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>132</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="7">
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="7">
         <v>60.563156890180302</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>-151.121210187309</v>
       </c>
-      <c r="N35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="N36" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>67</v>
+      <c r="S36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R37" t="s">
-        <v>67</v>
+      <c r="H37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N38" t="s">
-        <v>67</v>
-      </c>
-      <c r="O38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S41" t="s">
-        <v>67</v>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:R30">
-    <sortCondition ref="N12:N30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D14:S35">
+    <sortCondition ref="N14:N35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{728F8A43-1D37-41D4-BEC7-9DDC9325397A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2193,12 +2149,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="be79bd25-c9a7-44bf-83f7-c9d5107d1e55">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="31062a0d-ede8-4112-b4bb-00a9c1bc8e16" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2430,20 +2388,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="be79bd25-c9a7-44bf-83f7-c9d5107d1e55">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="31062a0d-ede8-4112-b4bb-00a9c1bc8e16" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA79EA88-D7AE-4DC6-BB90-5A49D53B1A7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EFC840-46C2-4953-854E-397EDE9307E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be79bd25-c9a7-44bf-83f7-c9d5107d1e55"/>
+    <ds:schemaRef ds:uri="31062a0d-ede8-4112-b4bb-00a9c1bc8e16"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2469,12 +2428,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EFC840-46C2-4953-854E-397EDE9307E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA79EA88-D7AE-4DC6-BB90-5A49D53B1A7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be79bd25-c9a7-44bf-83f7-c9d5107d1e55"/>
-    <ds:schemaRef ds:uri="31062a0d-ede8-4112-b4bb-00a9c1bc8e16"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>